--- a/doc/fw-list.xlsx
+++ b/doc/fw-list.xlsx
@@ -13,10 +13,11 @@
     <sheet name="Лист3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$B$1:$E$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$B$1:$E$11</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$B$1:$E$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$F$18</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$B$1:$E$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$B$1:$E$11</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
   <si>
     <t>Device</t>
   </si>
@@ -124,6 +125,9 @@
   </si>
   <si>
     <t>UTPS23.009.09.00.362_MAC23.009.09.00.362</t>
+  </si>
+  <si>
+    <t>NOT WORK AFTER OUTGOING CALLS</t>
   </si>
   <si>
     <t>21.158.13.04.697</t>
@@ -175,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -207,13 +211,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -226,12 +223,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -248,7 +239,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF66"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -261,7 +258,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,45 +285,46 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
@@ -334,7 +332,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Bad" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -347,7 +344,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF9C0006"/>
-      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -372,7 +369,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FF99FF66"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -380,7 +377,7 @@
       <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99FF66"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -410,19 +407,19 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.03238866396761"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7004048582996"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8218623481781"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.1336032388664"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1781376518219"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.6842105263158"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.60323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.7004048582996"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.1133603238866"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.36032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,20 +698,23 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,105 +725,105 @@
         <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C19" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C20" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E11"/>
+  <autoFilter ref="A1:F18"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -848,7 +848,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.331983805668"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -874,7 +874,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.331983805668"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/fw-list.xlsx
+++ b/doc/fw-list.xlsx
@@ -13,11 +13,12 @@
     <sheet name="Лист3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$B$1:$E$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$F$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$B$1:$E$11</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$B$1:$E$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$B$1:$E$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$F$18</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$B$1:$E$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$B$1:$E$11</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
   <si>
     <t>Device</t>
   </si>
@@ -170,6 +171,21 @@
   </si>
   <si>
     <t>cant install</t>
+  </si>
+  <si>
+    <t>E353s-1</t>
+  </si>
+  <si>
+    <t>CH2E353SM</t>
+  </si>
+  <si>
+    <t>21.157.06.00.362</t>
+  </si>
+  <si>
+    <t>Unlock v1 issue</t>
+  </si>
+  <si>
+    <t>11.604.09.00.314</t>
   </si>
 </sst>
 </file>
@@ -405,21 +421,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.60323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.7004048582996"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.1133603238866"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.36032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,8 +838,39 @@
         <v>46</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F18"/>
+  <autoFilter ref="B1:E11"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -848,7 +895,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.331983805668"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3562753036437"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -874,7 +921,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.331983805668"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3562753036437"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
